--- a/man/completed sheets/2016-01-25/David Fairbrother.xlsx
+++ b/man/completed sheets/2016-01-25/David Fairbrother.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="12090"/>
+    <workbookView xWindow="120" yWindow="132" windowWidth="24912" windowHeight="12096"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -131,8 +130,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[h]:mm"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -215,6 +215,10 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,6 +228,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -272,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,7 +314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,22 +529,22 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="68.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="68.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -558,11 +565,11 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>"Total hours accounted this week: " &amp;TEXT(I1, "hh:mm")</f>
-        <v>Total hours accounted this week: 00:00</v>
+        <v>Total hours accounted this week: 16:30</v>
       </c>
       <c r="I1" s="6">
         <f>SUM(F3:F100)</f>
-        <v>1</v>
+        <v>1.6875</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -575,7 +582,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -601,7 +608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -618,7 +625,7 @@
         <v>42335</v>
       </c>
       <c r="F3" s="11">
-        <v>0.20833333333333334</v>
+        <v>0.375</v>
       </c>
       <c r="G3" s="11">
         <v>0.16666666666666666</v>
@@ -627,7 +634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -644,7 +651,7 @@
         <v>42336</v>
       </c>
       <c r="F4" s="11">
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
       <c r="G4" s="11">
         <v>0.125</v>
@@ -653,7 +660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
@@ -669,8 +676,8 @@
       <c r="E5" s="10">
         <v>42337</v>
       </c>
-      <c r="F5" s="11">
-        <v>0.625</v>
+      <c r="F5" s="12">
+        <v>1</v>
       </c>
       <c r="G5" s="11">
         <v>0.20833333333333334</v>
@@ -679,7 +686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
@@ -696,7 +703,7 @@
         <v>42337</v>
       </c>
       <c r="F6" s="11">
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G6" s="11">
         <v>0.16666666666666666</v>
@@ -705,7 +712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>31</v>
       </c>
@@ -731,7 +738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -741,7 +748,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -751,7 +758,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -761,7 +768,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -771,7 +778,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -781,7 +788,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -791,7 +798,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -801,7 +808,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -811,7 +818,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -821,7 +828,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -831,7 +838,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -841,7 +848,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -851,7 +858,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -861,7 +868,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -871,7 +878,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -881,7 +888,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -891,7 +898,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -901,7 +908,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -911,7 +918,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -921,7 +928,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -931,7 +938,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -941,7 +948,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -951,7 +958,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -961,7 +968,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -971,7 +978,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -981,7 +988,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -991,7 +998,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1001,7 +1008,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1011,7 +1018,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1021,7 +1028,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1031,7 +1038,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1041,7 +1048,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1051,7 +1058,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -1061,7 +1068,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1071,7 +1078,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -1081,7 +1088,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1091,7 +1098,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -1101,7 +1108,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -1111,7 +1118,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -1121,7 +1128,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1131,7 +1138,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -1141,7 +1148,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -1151,7 +1158,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -1161,7 +1168,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1171,7 +1178,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -1181,7 +1188,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1191,7 +1198,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -1201,7 +1208,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -1211,7 +1218,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -1221,7 +1228,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -1231,7 +1238,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -1241,7 +1248,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -1251,7 +1258,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -1261,7 +1268,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -1271,7 +1278,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -1281,7 +1288,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -1291,7 +1298,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -1301,7 +1308,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -1311,7 +1318,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -1321,7 +1328,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -1331,7 +1338,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -1341,7 +1348,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -1351,7 +1358,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -1361,7 +1368,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -1371,7 +1378,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -1381,7 +1388,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -1391,7 +1398,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -1401,7 +1408,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -1411,7 +1418,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -1421,7 +1428,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -1431,7 +1438,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -1441,7 +1448,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -1451,7 +1458,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -1461,7 +1468,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -1471,7 +1478,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -1481,7 +1488,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -1491,7 +1498,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -1501,7 +1508,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -1511,7 +1518,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -1521,7 +1528,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -1531,7 +1538,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -1541,7 +1548,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -1551,7 +1558,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -1561,7 +1568,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -1571,7 +1578,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -1581,7 +1588,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -1591,7 +1598,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -1601,7 +1608,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -1611,7 +1618,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -1621,7 +1628,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -1631,7 +1638,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -1641,7 +1648,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -1651,7 +1658,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -1662,7 +1669,7 @@
       <c r="H100" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection sort="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1674,7 +1681,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1687,7 +1694,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
